--- a/Modelo Dados Final.xlsx
+++ b/Modelo Dados Final.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>VL_NOTA</t>
   </si>
@@ -258,16 +258,40 @@
     <t>CD_LOCA</t>
   </si>
   <si>
-    <t>CD_FUNC_GEST_SUPR_AREA</t>
-  </si>
-  <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>ID_FUNC_GEST</t>
   </si>
   <si>
     <t>NM_GEST_FUNC</t>
+  </si>
+  <si>
+    <t>NM_N1</t>
+  </si>
+  <si>
+    <t>NM_N2</t>
+  </si>
+  <si>
+    <t>NM_N3</t>
+  </si>
+  <si>
+    <t>NM_N4</t>
+  </si>
+  <si>
+    <t>NM_N5</t>
+  </si>
+  <si>
+    <t>NM_N6</t>
+  </si>
+  <si>
+    <t>NM_N7</t>
+  </si>
+  <si>
+    <t>NM_N8</t>
+  </si>
+  <si>
+    <t>CD_CARG_PADR</t>
+  </si>
+  <si>
+    <t>CD_HIER_ESTR_ORGA</t>
   </si>
 </sst>
 </file>
@@ -501,12 +525,6 @@
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -526,8 +544,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -553,24 +569,32 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,1596 +899,1630 @@
   <dimension ref="A1:AL165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="39"/>
+    <col min="1" max="1" width="9.140625" style="35"/>
     <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="39" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="39" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="35" customWidth="1"/>
     <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="39"/>
-    <col min="11" max="11" width="8.28515625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="35"/>
+    <col min="11" max="11" width="8.28515625" style="35" customWidth="1"/>
     <col min="12" max="12" width="16.28515625" customWidth="1"/>
     <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="38" width="9.140625" style="39"/>
+    <col min="14" max="38" width="9.140625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:14" s="39" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="2:14" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:14" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="39" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="47"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="L4" s="2" t="s">
+      <c r="I4" s="49"/>
+      <c r="L4" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="39" t="s">
+      <c r="M4" s="49"/>
+      <c r="N4" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="49" t="s">
+      <c r="F5" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="31" t="s">
+      <c r="H5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="35" t="s">
+      <c r="M6" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="39" t="s">
+      <c r="F10" s="49"/>
+      <c r="G10" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="I10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="39" t="s">
+      <c r="M10" s="49"/>
+      <c r="N10" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="L11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="M12" s="38" t="s">
+      <c r="M12" s="34" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="H13" s="21" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="H13" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="28" t="s">
+      <c r="M13" s="24" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="H14" s="44" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="H14" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="45" t="s">
+      <c r="I14" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="H15" s="6" t="s">
+      <c r="C15" s="49"/>
+      <c r="H15" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="L16" s="2" t="s">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="L16" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="39" t="s">
+      <c r="M16" s="49"/>
+      <c r="N16" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L17" s="40" t="s">
+      <c r="L17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="37" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
-      <c r="L18" s="27" t="s">
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="L18" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M18" s="28" t="s">
+      <c r="M18" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="3"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="I19" s="49"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="26" t="s">
+      <c r="B20" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="23" t="s">
+      <c r="H20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="M21" s="3"/>
-      <c r="N21" s="39" t="s">
+      <c r="M21" s="49"/>
+      <c r="N21" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="I22" s="28" t="s">
+      <c r="I22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="43" t="s">
+      <c r="M22" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="L23" s="25" t="s">
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="L23" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="M23" s="26" t="s">
+      <c r="M23" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="L24" s="27" t="s">
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="L24" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="M24" s="28" t="s">
+      <c r="M24" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>81</v>
+      <c r="B26" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="H26" s="52" t="s">
         <v>70</v>
       </c>
       <c r="I26" s="53"/>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H28" s="27" t="s">
+      <c r="H28" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="I28" s="28" t="s">
+      <c r="I28" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="L28" s="39"/>
-      <c r="M28" s="39"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="26" t="s">
+      <c r="B29" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="39"/>
-      <c r="M29" s="39"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="26" t="s">
+      <c r="B30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H30" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="39"/>
-      <c r="M30" s="39"/>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="39"/>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="39"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="26" t="s">
+      <c r="B34" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="26" t="s">
+      <c r="B35" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="26" t="s">
+      <c r="B36" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="39"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="L38" s="39"/>
-      <c r="M38" s="39"/>
+      <c r="B38" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
+      <c r="B39" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
+      <c r="B40" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
+      <c r="B41" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="L42" s="39"/>
-      <c r="M42" s="39"/>
+      <c r="B42" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="39"/>
-      <c r="L43" s="39"/>
-      <c r="M43" s="39"/>
+      <c r="B43" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="39"/>
+      <c r="B44" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="39"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="39"/>
+      <c r="B45" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
+      <c r="B46" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-      <c r="L47" s="39"/>
-      <c r="M47" s="39"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="24"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="39"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="39"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="39"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="L50" s="39"/>
-      <c r="M50" s="39"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="39"/>
-      <c r="L51" s="39"/>
-      <c r="M51" s="39"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="39"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B53" s="39"/>
-      <c r="C53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="39"/>
-      <c r="L54" s="39"/>
-      <c r="M54" s="39"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="L55" s="39"/>
-      <c r="M55" s="39"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="39"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="39"/>
-      <c r="L57" s="39"/>
-      <c r="M57" s="39"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B58" s="39"/>
-      <c r="C58" s="39"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="39"/>
-      <c r="L58" s="39"/>
-      <c r="M58" s="39"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B60" s="39"/>
-      <c r="C60" s="39"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="39"/>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="39"/>
-      <c r="C63" s="39"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="39"/>
-      <c r="L63" s="39"/>
-      <c r="M63" s="39"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B64" s="39"/>
-      <c r="C64" s="39"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="39"/>
-      <c r="L64" s="39"/>
-      <c r="M64" s="39"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B65" s="39"/>
-      <c r="C65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B66" s="39"/>
-      <c r="C66" s="39"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="39"/>
-      <c r="L66" s="39"/>
-      <c r="M66" s="39"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B67" s="39"/>
-      <c r="C67" s="39"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="39"/>
-      <c r="L67" s="39"/>
-      <c r="M67" s="39"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B68" s="39"/>
-      <c r="C68" s="39"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="39"/>
-      <c r="L68" s="39"/>
-      <c r="M68" s="39"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B69" s="39"/>
-      <c r="C69" s="39"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="39"/>
-      <c r="L69" s="39"/>
-      <c r="M69" s="39"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B70" s="39"/>
-      <c r="C70" s="39"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="39"/>
-      <c r="L70" s="39"/>
-      <c r="M70" s="39"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B71" s="39"/>
-      <c r="C71" s="39"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="39"/>
-      <c r="L71" s="39"/>
-      <c r="M71" s="39"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B72" s="39"/>
-      <c r="C72" s="39"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="39"/>
-      <c r="L72" s="39"/>
-      <c r="M72" s="39"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B73" s="39"/>
-      <c r="C73" s="39"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="39"/>
-      <c r="L73" s="39"/>
-      <c r="M73" s="39"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="39"/>
-      <c r="C74" s="39"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="39"/>
-      <c r="L74" s="39"/>
-      <c r="M74" s="39"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="39"/>
-      <c r="L75" s="39"/>
-      <c r="M75" s="39"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="39"/>
-      <c r="C76" s="39"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="39"/>
-      <c r="L76" s="39"/>
-      <c r="M76" s="39"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B77" s="39"/>
-      <c r="C77" s="39"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="39"/>
-      <c r="L77" s="39"/>
-      <c r="M77" s="39"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="L77" s="35"/>
+      <c r="M77" s="35"/>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B78" s="39"/>
-      <c r="C78" s="39"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="39"/>
-      <c r="L78" s="39"/>
-      <c r="M78" s="39"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="L78" s="35"/>
+      <c r="M78" s="35"/>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="L79" s="39"/>
-      <c r="M79" s="39"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B80" s="39"/>
-      <c r="C80" s="39"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="39"/>
-      <c r="L80" s="39"/>
-      <c r="M80" s="39"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="39"/>
-      <c r="C81" s="39"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="39"/>
-      <c r="L81" s="39"/>
-      <c r="M81" s="39"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="39"/>
-      <c r="C82" s="39"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
-      <c r="L82" s="39"/>
-      <c r="M82" s="39"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="39"/>
-      <c r="L83" s="39"/>
-      <c r="M83" s="39"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="39"/>
-      <c r="C84" s="39"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
-      <c r="L84" s="39"/>
-      <c r="M84" s="39"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="H84" s="35"/>
+      <c r="I84" s="35"/>
+      <c r="L84" s="35"/>
+      <c r="M84" s="35"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="39"/>
-      <c r="C85" s="39"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="39"/>
-      <c r="L85" s="39"/>
-      <c r="M85" s="39"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="L85" s="35"/>
+      <c r="M85" s="35"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="39"/>
-      <c r="C86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="39"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="39"/>
-      <c r="C87" s="39"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
-      <c r="L87" s="39"/>
-      <c r="M87" s="39"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="39"/>
-      <c r="C88" s="39"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="39"/>
-      <c r="L88" s="39"/>
-      <c r="M88" s="39"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="39"/>
-      <c r="C89" s="39"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="39"/>
-      <c r="C90" s="39"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39"/>
-      <c r="L90" s="39"/>
-      <c r="M90" s="39"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="39"/>
-      <c r="L91" s="39"/>
-      <c r="M91" s="39"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="39"/>
-      <c r="C92" s="39"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39"/>
-      <c r="L92" s="39"/>
-      <c r="M92" s="39"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B93" s="39"/>
-      <c r="C93" s="39"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="39"/>
-      <c r="L93" s="39"/>
-      <c r="M93" s="39"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="39"/>
-      <c r="C94" s="39"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="39"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="39"/>
-      <c r="C96" s="39"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="35"/>
+      <c r="L96" s="35"/>
+      <c r="M96" s="35"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B97" s="39"/>
-      <c r="C97" s="39"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="35"/>
+      <c r="L97" s="35"/>
+      <c r="M97" s="35"/>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B98" s="39"/>
-      <c r="C98" s="39"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="35"/>
+      <c r="H98" s="35"/>
+      <c r="I98" s="35"/>
+      <c r="L98" s="35"/>
+      <c r="M98" s="35"/>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B99" s="39"/>
-      <c r="C99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="35"/>
+      <c r="H99" s="35"/>
+      <c r="I99" s="35"/>
+      <c r="L99" s="35"/>
+      <c r="M99" s="35"/>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B100" s="39"/>
-      <c r="C100" s="39"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="35"/>
+      <c r="H100" s="35"/>
+      <c r="I100" s="35"/>
+      <c r="L100" s="35"/>
+      <c r="M100" s="35"/>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B101" s="39"/>
-      <c r="C101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="35"/>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B102" s="39"/>
-      <c r="C102" s="39"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="39"/>
-      <c r="L102" s="39"/>
-      <c r="M102" s="39"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="35"/>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B103" s="39"/>
-      <c r="C103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="35"/>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B104" s="39"/>
-      <c r="C104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="39"/>
+      <c r="B104" s="35"/>
+      <c r="C104" s="35"/>
+      <c r="H104" s="35"/>
+      <c r="I104" s="35"/>
+      <c r="L104" s="35"/>
+      <c r="M104" s="35"/>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B105" s="39"/>
-      <c r="C105" s="39"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="39"/>
-      <c r="L105" s="39"/>
-      <c r="M105" s="39"/>
+      <c r="B105" s="35"/>
+      <c r="C105" s="35"/>
+      <c r="H105" s="35"/>
+      <c r="I105" s="35"/>
+      <c r="L105" s="35"/>
+      <c r="M105" s="35"/>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B106" s="39"/>
-      <c r="C106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
+      <c r="B106" s="35"/>
+      <c r="C106" s="35"/>
+      <c r="H106" s="35"/>
+      <c r="I106" s="35"/>
+      <c r="L106" s="35"/>
+      <c r="M106" s="35"/>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B107" s="39"/>
-      <c r="C107" s="39"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="39"/>
-      <c r="L107" s="39"/>
-      <c r="M107" s="39"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="35"/>
+      <c r="H107" s="35"/>
+      <c r="I107" s="35"/>
+      <c r="L107" s="35"/>
+      <c r="M107" s="35"/>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B108" s="39"/>
-      <c r="C108" s="39"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="39"/>
-      <c r="L108" s="39"/>
-      <c r="M108" s="39"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="35"/>
+      <c r="H108" s="35"/>
+      <c r="I108" s="35"/>
+      <c r="L108" s="35"/>
+      <c r="M108" s="35"/>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B109" s="39"/>
-      <c r="C109" s="39"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="35"/>
+      <c r="H109" s="35"/>
+      <c r="I109" s="35"/>
+      <c r="L109" s="35"/>
+      <c r="M109" s="35"/>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B110" s="39"/>
-      <c r="C110" s="39"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="39"/>
-      <c r="L110" s="39"/>
-      <c r="M110" s="39"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="35"/>
+      <c r="H110" s="35"/>
+      <c r="I110" s="35"/>
+      <c r="L110" s="35"/>
+      <c r="M110" s="35"/>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B111" s="39"/>
-      <c r="C111" s="39"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="39"/>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="35"/>
+      <c r="H111" s="35"/>
+      <c r="I111" s="35"/>
+      <c r="L111" s="35"/>
+      <c r="M111" s="35"/>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B112" s="39"/>
-      <c r="C112" s="39"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="39"/>
-      <c r="L112" s="39"/>
-      <c r="M112" s="39"/>
+      <c r="B112" s="35"/>
+      <c r="C112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="L112" s="35"/>
+      <c r="M112" s="35"/>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B113" s="39"/>
-      <c r="C113" s="39"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="39"/>
-      <c r="L113" s="39"/>
-      <c r="M113" s="39"/>
+      <c r="B113" s="35"/>
+      <c r="C113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="L113" s="35"/>
+      <c r="M113" s="35"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B114" s="39"/>
-      <c r="C114" s="39"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="39"/>
-      <c r="L114" s="39"/>
-      <c r="M114" s="39"/>
+      <c r="B114" s="35"/>
+      <c r="C114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
+      <c r="L114" s="35"/>
+      <c r="M114" s="35"/>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B115" s="39"/>
-      <c r="C115" s="39"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="39"/>
-      <c r="L115" s="39"/>
-      <c r="M115" s="39"/>
+      <c r="B115" s="35"/>
+      <c r="C115" s="35"/>
+      <c r="H115" s="35"/>
+      <c r="I115" s="35"/>
+      <c r="L115" s="35"/>
+      <c r="M115" s="35"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B116" s="39"/>
-      <c r="C116" s="39"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="39"/>
-      <c r="L116" s="39"/>
-      <c r="M116" s="39"/>
+      <c r="B116" s="35"/>
+      <c r="C116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="35"/>
+      <c r="L116" s="35"/>
+      <c r="M116" s="35"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B117" s="39"/>
-      <c r="C117" s="39"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="39"/>
-      <c r="L117" s="39"/>
-      <c r="M117" s="39"/>
+      <c r="B117" s="35"/>
+      <c r="C117" s="35"/>
+      <c r="H117" s="35"/>
+      <c r="I117" s="35"/>
+      <c r="L117" s="35"/>
+      <c r="M117" s="35"/>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B118" s="39"/>
-      <c r="C118" s="39"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="L118" s="39"/>
-      <c r="M118" s="39"/>
+      <c r="B118" s="35"/>
+      <c r="C118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="35"/>
+      <c r="L118" s="35"/>
+      <c r="M118" s="35"/>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B119" s="39"/>
-      <c r="C119" s="39"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
-      <c r="L119" s="39"/>
-      <c r="M119" s="39"/>
+      <c r="B119" s="35"/>
+      <c r="C119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+      <c r="L119" s="35"/>
+      <c r="M119" s="35"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B120" s="39"/>
-      <c r="C120" s="39"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="39"/>
-      <c r="L120" s="39"/>
-      <c r="M120" s="39"/>
+      <c r="B120" s="35"/>
+      <c r="C120" s="35"/>
+      <c r="H120" s="35"/>
+      <c r="I120" s="35"/>
+      <c r="L120" s="35"/>
+      <c r="M120" s="35"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B121" s="39"/>
-      <c r="C121" s="39"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="39"/>
-      <c r="L121" s="39"/>
-      <c r="M121" s="39"/>
+      <c r="B121" s="35"/>
+      <c r="C121" s="35"/>
+      <c r="H121" s="35"/>
+      <c r="I121" s="35"/>
+      <c r="L121" s="35"/>
+      <c r="M121" s="35"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B122" s="39"/>
-      <c r="C122" s="39"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="39"/>
-      <c r="L122" s="39"/>
-      <c r="M122" s="39"/>
+      <c r="B122" s="35"/>
+      <c r="C122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="35"/>
+      <c r="L122" s="35"/>
+      <c r="M122" s="35"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B123" s="39"/>
-      <c r="C123" s="39"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="39"/>
-      <c r="L123" s="39"/>
-      <c r="M123" s="39"/>
+      <c r="B123" s="35"/>
+      <c r="C123" s="35"/>
+      <c r="H123" s="35"/>
+      <c r="I123" s="35"/>
+      <c r="L123" s="35"/>
+      <c r="M123" s="35"/>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B124" s="39"/>
-      <c r="C124" s="39"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="39"/>
-      <c r="L124" s="39"/>
-      <c r="M124" s="39"/>
+      <c r="B124" s="35"/>
+      <c r="C124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="35"/>
+      <c r="L124" s="35"/>
+      <c r="M124" s="35"/>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B125" s="39"/>
-      <c r="C125" s="39"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="39"/>
-      <c r="L125" s="39"/>
-      <c r="M125" s="39"/>
+      <c r="B125" s="35"/>
+      <c r="C125" s="35"/>
+      <c r="H125" s="35"/>
+      <c r="I125" s="35"/>
+      <c r="L125" s="35"/>
+      <c r="M125" s="35"/>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B126" s="39"/>
-      <c r="C126" s="39"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="39"/>
-      <c r="L126" s="39"/>
-      <c r="M126" s="39"/>
+      <c r="B126" s="35"/>
+      <c r="C126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+      <c r="L126" s="35"/>
+      <c r="M126" s="35"/>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B127" s="39"/>
-      <c r="C127" s="39"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="39"/>
-      <c r="L127" s="39"/>
-      <c r="M127" s="39"/>
+      <c r="B127" s="35"/>
+      <c r="C127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="35"/>
+      <c r="L127" s="35"/>
+      <c r="M127" s="35"/>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B128" s="39"/>
-      <c r="C128" s="39"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="39"/>
-      <c r="L128" s="39"/>
-      <c r="M128" s="39"/>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="H128" s="35"/>
+      <c r="I128" s="35"/>
+      <c r="L128" s="35"/>
+      <c r="M128" s="35"/>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B129" s="39"/>
-      <c r="C129" s="39"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="39"/>
-      <c r="L129" s="39"/>
-      <c r="M129" s="39"/>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="H129" s="35"/>
+      <c r="I129" s="35"/>
+      <c r="L129" s="35"/>
+      <c r="M129" s="35"/>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B130" s="39"/>
-      <c r="C130" s="39"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="39"/>
-      <c r="L130" s="39"/>
-      <c r="M130" s="39"/>
+      <c r="B130" s="35"/>
+      <c r="C130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="35"/>
+      <c r="L130" s="35"/>
+      <c r="M130" s="35"/>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B131" s="39"/>
-      <c r="C131" s="39"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="39"/>
-      <c r="L131" s="39"/>
-      <c r="M131" s="39"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="H131" s="35"/>
+      <c r="I131" s="35"/>
+      <c r="L131" s="35"/>
+      <c r="M131" s="35"/>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B132" s="39"/>
-      <c r="C132" s="39"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="39"/>
-      <c r="L132" s="39"/>
-      <c r="M132" s="39"/>
+      <c r="B132" s="35"/>
+      <c r="C132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="35"/>
+      <c r="L132" s="35"/>
+      <c r="M132" s="35"/>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B133" s="39"/>
-      <c r="C133" s="39"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="39"/>
-      <c r="L133" s="39"/>
-      <c r="M133" s="39"/>
+      <c r="B133" s="35"/>
+      <c r="C133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="35"/>
+      <c r="L133" s="35"/>
+      <c r="M133" s="35"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B134" s="39"/>
-      <c r="C134" s="39"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="39"/>
-      <c r="L134" s="39"/>
-      <c r="M134" s="39"/>
+      <c r="B134" s="35"/>
+      <c r="C134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="35"/>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B135" s="39"/>
-      <c r="C135" s="39"/>
-      <c r="H135" s="39"/>
-      <c r="I135" s="39"/>
-      <c r="L135" s="39"/>
-      <c r="M135" s="39"/>
+      <c r="B135" s="35"/>
+      <c r="C135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="35"/>
+      <c r="L135" s="35"/>
+      <c r="M135" s="35"/>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B136" s="39"/>
-      <c r="C136" s="39"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="39"/>
-      <c r="L136" s="39"/>
-      <c r="M136" s="39"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="35"/>
+      <c r="H136" s="35"/>
+      <c r="I136" s="35"/>
+      <c r="L136" s="35"/>
+      <c r="M136" s="35"/>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B137" s="39"/>
-      <c r="C137" s="39"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="39"/>
-      <c r="L137" s="39"/>
-      <c r="M137" s="39"/>
+      <c r="B137" s="35"/>
+      <c r="C137" s="35"/>
+      <c r="H137" s="35"/>
+      <c r="I137" s="35"/>
+      <c r="L137" s="35"/>
+      <c r="M137" s="35"/>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B138" s="39"/>
-      <c r="C138" s="39"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="39"/>
-      <c r="L138" s="39"/>
-      <c r="M138" s="39"/>
+      <c r="B138" s="35"/>
+      <c r="C138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="35"/>
+      <c r="L138" s="35"/>
+      <c r="M138" s="35"/>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B139" s="39"/>
-      <c r="C139" s="39"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="39"/>
-      <c r="L139" s="39"/>
-      <c r="M139" s="39"/>
+      <c r="B139" s="35"/>
+      <c r="C139" s="35"/>
+      <c r="H139" s="35"/>
+      <c r="I139" s="35"/>
+      <c r="L139" s="35"/>
+      <c r="M139" s="35"/>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B140" s="39"/>
-      <c r="C140" s="39"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="39"/>
-      <c r="L140" s="39"/>
-      <c r="M140" s="39"/>
+      <c r="B140" s="35"/>
+      <c r="C140" s="35"/>
+      <c r="H140" s="35"/>
+      <c r="I140" s="35"/>
+      <c r="L140" s="35"/>
+      <c r="M140" s="35"/>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B141" s="39"/>
-      <c r="C141" s="39"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="39"/>
-      <c r="L141" s="39"/>
-      <c r="M141" s="39"/>
+      <c r="B141" s="35"/>
+      <c r="C141" s="35"/>
+      <c r="H141" s="35"/>
+      <c r="I141" s="35"/>
+      <c r="L141" s="35"/>
+      <c r="M141" s="35"/>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B142" s="39"/>
-      <c r="C142" s="39"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="39"/>
-      <c r="L142" s="39"/>
-      <c r="M142" s="39"/>
+      <c r="B142" s="35"/>
+      <c r="C142" s="35"/>
+      <c r="H142" s="35"/>
+      <c r="I142" s="35"/>
+      <c r="L142" s="35"/>
+      <c r="M142" s="35"/>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B143" s="39"/>
-      <c r="C143" s="39"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="39"/>
-      <c r="L143" s="39"/>
-      <c r="M143" s="39"/>
+      <c r="B143" s="35"/>
+      <c r="C143" s="35"/>
+      <c r="H143" s="35"/>
+      <c r="I143" s="35"/>
+      <c r="L143" s="35"/>
+      <c r="M143" s="35"/>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B144" s="39"/>
-      <c r="C144" s="39"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="39"/>
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="H144" s="35"/>
+      <c r="I144" s="35"/>
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B145" s="39"/>
-      <c r="C145" s="39"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="39"/>
+      <c r="B145" s="35"/>
+      <c r="C145" s="35"/>
+      <c r="H145" s="35"/>
+      <c r="I145" s="35"/>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B146" s="39"/>
-      <c r="C146" s="39"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="39"/>
+      <c r="B146" s="35"/>
+      <c r="C146" s="35"/>
+      <c r="H146" s="35"/>
+      <c r="I146" s="35"/>
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B147" s="39"/>
-      <c r="C147" s="39"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="39"/>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="H147" s="35"/>
+      <c r="I147" s="35"/>
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B148" s="39"/>
-      <c r="C148" s="39"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="39"/>
+      <c r="B148" s="35"/>
+      <c r="C148" s="35"/>
+      <c r="H148" s="35"/>
+      <c r="I148" s="35"/>
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B149" s="39"/>
-      <c r="C149" s="39"/>
-      <c r="H149" s="39"/>
-      <c r="I149" s="39"/>
+      <c r="B149" s="35"/>
+      <c r="C149" s="35"/>
+      <c r="H149" s="35"/>
+      <c r="I149" s="35"/>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B150" s="39"/>
-      <c r="C150" s="39"/>
-      <c r="H150" s="39"/>
-      <c r="I150" s="39"/>
+      <c r="B150" s="35"/>
+      <c r="C150" s="35"/>
+      <c r="H150" s="35"/>
+      <c r="I150" s="35"/>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B151" s="39"/>
-      <c r="C151" s="39"/>
-      <c r="H151" s="39"/>
-      <c r="I151" s="39"/>
+      <c r="B151" s="35"/>
+      <c r="C151" s="35"/>
+      <c r="H151" s="35"/>
+      <c r="I151" s="35"/>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B152" s="39"/>
-      <c r="C152" s="39"/>
-      <c r="H152" s="39"/>
-      <c r="I152" s="39"/>
+      <c r="B152" s="35"/>
+      <c r="C152" s="35"/>
+      <c r="H152" s="35"/>
+      <c r="I152" s="35"/>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B153" s="39"/>
-      <c r="C153" s="39"/>
-      <c r="H153" s="39"/>
-      <c r="I153" s="39"/>
+      <c r="B153" s="35"/>
+      <c r="C153" s="35"/>
+      <c r="H153" s="35"/>
+      <c r="I153" s="35"/>
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B154" s="39"/>
-      <c r="C154" s="39"/>
-      <c r="H154" s="39"/>
-      <c r="I154" s="39"/>
+      <c r="B154" s="35"/>
+      <c r="C154" s="35"/>
+      <c r="H154" s="35"/>
+      <c r="I154" s="35"/>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B155" s="39"/>
-      <c r="C155" s="39"/>
-      <c r="H155" s="39"/>
-      <c r="I155" s="39"/>
+      <c r="B155" s="35"/>
+      <c r="C155" s="35"/>
+      <c r="H155" s="35"/>
+      <c r="I155" s="35"/>
     </row>
     <row r="156" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B156" s="39"/>
-      <c r="C156" s="39"/>
-      <c r="H156" s="39"/>
-      <c r="I156" s="39"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="35"/>
+      <c r="H156" s="35"/>
+      <c r="I156" s="35"/>
     </row>
     <row r="157" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B157" s="39"/>
-      <c r="C157" s="39"/>
-      <c r="H157" s="39"/>
-      <c r="I157" s="39"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="35"/>
+      <c r="H157" s="35"/>
+      <c r="I157" s="35"/>
     </row>
     <row r="158" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B158" s="39"/>
-      <c r="C158" s="39"/>
-      <c r="H158" s="39"/>
-      <c r="I158" s="39"/>
+      <c r="B158" s="35"/>
+      <c r="C158" s="35"/>
+      <c r="H158" s="35"/>
+      <c r="I158" s="35"/>
     </row>
     <row r="159" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B159" s="39"/>
-      <c r="C159" s="39"/>
-      <c r="H159" s="39"/>
-      <c r="I159" s="39"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="35"/>
+      <c r="H159" s="35"/>
+      <c r="I159" s="35"/>
     </row>
     <row r="160" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B160" s="39"/>
-      <c r="C160" s="39"/>
-      <c r="H160" s="39"/>
-      <c r="I160" s="39"/>
+      <c r="H160" s="35"/>
+      <c r="I160" s="35"/>
     </row>
     <row r="161" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H161" s="39"/>
-      <c r="I161" s="39"/>
+      <c r="H161" s="35"/>
+      <c r="I161" s="35"/>
     </row>
     <row r="162" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H162" s="39"/>
-      <c r="I162" s="39"/>
+      <c r="H162" s="35"/>
+      <c r="I162" s="35"/>
     </row>
     <row r="163" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H163" s="39"/>
-      <c r="I163" s="39"/>
+      <c r="H163" s="35"/>
+      <c r="I163" s="35"/>
     </row>
     <row r="164" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H164" s="39"/>
-      <c r="I164" s="39"/>
+      <c r="H164" s="35"/>
+      <c r="I164" s="35"/>
     </row>
     <row r="165" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H165" s="39"/>
-      <c r="I165" s="39"/>
+      <c r="H165" s="35"/>
+      <c r="I165" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
